--- a/Statistics3.xlsx
+++ b/Statistics3.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-31.6</v>
+        <v>-39.33333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8</v>
+        <v>2.748737083745107</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>-31.8</v>
+        <v>-40.73333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>3.059411708155671</v>
+        <v>1.436043948569201</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>-31.8</v>
+        <v>-41.53333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>2.638181191654584</v>
+        <v>0.618241233033047</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>60</v>
       </c>
       <c r="B5" t="n">
-        <v>-30.6</v>
+        <v>-51.33333333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>2.244994432064365</v>
+        <v>5.399588461684424</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>80</v>
       </c>
       <c r="B6" t="n">
-        <v>-31.8</v>
+        <v>-55.73333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>3.059411708155671</v>
+        <v>5.847696602556903</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>-30.6</v>
+        <v>-49.93333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>2.244994432064365</v>
+        <v>6.43393779543722</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>120</v>
       </c>
       <c r="B8" t="n">
-        <v>-32.8</v>
+        <v>-55.46666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>2.712931993250107</v>
+        <v>4.910759162854105</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>-30.4</v>
+        <v>-56.53333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>2.33238075793812</v>
+        <v>2.94089933334837</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>160</v>
       </c>
       <c r="B10" t="n">
-        <v>-31.6</v>
+        <v>-57.8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2</v>
+        <v>3.05941170815567</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>180</v>
       </c>
       <c r="B11" t="n">
-        <v>-31.6</v>
+        <v>-62.13333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>2.8</v>
+        <v>4.773072618578333</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>200</v>
       </c>
       <c r="B12" t="n">
-        <v>-30.4</v>
+        <v>-65</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8</v>
+        <v>5.94418483337567</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>240</v>
       </c>
       <c r="B13" t="n">
-        <v>-31.4</v>
+        <v>-61</v>
       </c>
       <c r="C13" t="n">
-        <v>2.939387691339813</v>
+        <v>4.618802153517006</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>280</v>
       </c>
       <c r="B14" t="n">
-        <v>-31.4</v>
+        <v>-64.13333333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>2.939387691339813</v>
+        <v>5.226428566005237</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>320</v>
       </c>
       <c r="B15" t="n">
-        <v>-31.8</v>
+        <v>-64.46666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>2.638181191654584</v>
+        <v>1.627540748764494</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>360</v>
       </c>
       <c r="B16" t="n">
-        <v>-31.6</v>
+        <v>-63.33333333333334</v>
       </c>
       <c r="C16" t="n">
-        <v>2.8</v>
+        <v>2.14993539954628</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>400</v>
       </c>
       <c r="B17" t="n">
-        <v>-30.4</v>
+        <v>-63.2</v>
       </c>
       <c r="C17" t="n">
-        <v>2.33238075793812</v>
+        <v>3.798245208865096</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>440</v>
       </c>
       <c r="B18" t="n">
-        <v>-31.4</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>2.939387691339813</v>
+        <v>4.192055979269997</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>480</v>
       </c>
       <c r="B19" t="n">
-        <v>-31.8</v>
+        <v>-65.13333333333334</v>
       </c>
       <c r="C19" t="n">
-        <v>2.638181191654584</v>
+        <v>2.028683207293725</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>520</v>
       </c>
       <c r="B20" t="n">
-        <v>-30.2</v>
+        <v>-68.66666666666667</v>
       </c>
       <c r="C20" t="n">
-        <v>2.4</v>
+        <v>5.374838498865699</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>560</v>
       </c>
       <c r="B21" t="n">
-        <v>-30.4</v>
+        <v>-67.86666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>2.33238075793812</v>
+        <v>8.66307617933081</v>
       </c>
     </row>
   </sheetData>
